--- a/danimuh12/evidence.xlsx
+++ b/danimuh12/evidence.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Крипта\___2022 new Airdrop and others\GON testnet\15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Крипта\___2022 new Airdrop and others\GON testnet\15\danimuh12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="813" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
   <si>
     <t>TeamName</t>
   </si>
@@ -80,45 +80,12 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
   </si>
   <si>
@@ -147,13 +114,208 @@
   </si>
   <si>
     <t>omniflix1dufdme2n7c8ekmktmtzcht337q73gqaewezwes</t>
+  </si>
+  <si>
+    <t>D382353CE0292F9521070E8FCD64FA9332CCA546960BD046817BF11C9ACA71DB</t>
+  </si>
+  <si>
+    <t>gradient</t>
+  </si>
+  <si>
+    <t>382CC0F6621075E8AB2A6928AECECB3919138E9F67203CF6CB589A094BA14EA6</t>
+  </si>
+  <si>
+    <t>gradient1</t>
+  </si>
+  <si>
+    <t>6D2CEEB3BD4494244857A1F3320106427DF10880603FA5267E1501C74F1A2FB2</t>
+  </si>
+  <si>
+    <t>gradient2</t>
+  </si>
+  <si>
+    <t>717397316AB6DBB1E311972A9D83BD7A1508A04D695010144144129C033A4866</t>
+  </si>
+  <si>
+    <t>stars14fkhhjd3mtykycmycrgzcdw0sx880k0aaz275tgth5ndevxl4xqsk4y9v7</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>3AEA66C174B2C1A6D1A40AB0FB70C0EBE78B32A6DF1A92C2190ED7918B8EEDAB</t>
+  </si>
+  <si>
+    <t>ibc/E187AD319AB9ED35F3CE19D9A3927E45440F7E5ACDD36EA1462751DA83AC618E</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>52A48F612B3D888858D2316185088CFEFF97A7E1D869BB7B02F9E67C74D88B10</t>
+  </si>
+  <si>
+    <t>9B95E99DD81282E6AAA94CCA3232381340F477E19E69325B57E548DF96AD4949</t>
+  </si>
+  <si>
+    <t>ibc/93CF6789EE7F2E3E1D24531E2B61C30EA5E57637D46BA5EDF0796216540E7B44</t>
+  </si>
+  <si>
+    <t>gradient/a7</t>
+  </si>
+  <si>
+    <t>ibc/9A13D8F1767CD25A09968001E4D1C3BDB9F61CE1F96872666ED83C685117BB28</t>
+  </si>
+  <si>
+    <t>gradient/a8</t>
+  </si>
+  <si>
+    <t>ibc/5059A72C12B9B95C879B3514B6372CC0597D0C60EE5C40B5298E6DDB2CF2C1DD</t>
+  </si>
+  <si>
+    <t>gradient/a9</t>
+  </si>
+  <si>
+    <t>ibc/44C7364841E4EC92EF9E88EE08D091826F015A5B49929B1A93AB34ADB355753B</t>
+  </si>
+  <si>
+    <t>gradient/a10</t>
+  </si>
+  <si>
+    <t>ibc/A7C8CAC7B90C7056616C4158566F9A3C0053516F5CAB5833F132A1A5B911FC5E</t>
+  </si>
+  <si>
+    <t>gradient/a11</t>
+  </si>
+  <si>
+    <t>ibc/FFCD3ABD175CF84B78CBE953A3B25218680E9B07E633900D12BB1A374659F28F</t>
+  </si>
+  <si>
+    <t>gradient/a12</t>
+  </si>
+  <si>
+    <t>2A000C1C58D3866367DE3F8ED6F8B689BF41C8AD1958F24D4E0DD07CB3BE9E49</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>E38757679DED7A8E900895F5D8E25B7286D5E309830F416B7AD405E8E7A708FC</t>
+  </si>
+  <si>
+    <t>9A24357226E1977E6AD9CA7DC56D4578B3812AE98E1BF9198B46921B1AA44C02</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>AEE79E7A04862E59B2EFEC87B1B898D7FF71E70C10280A88E9ADFF3BA792E49B</t>
+  </si>
+  <si>
+    <t>3118BCFE173C3B16A87628B491CED9D9ADD2565CD5DEB40463467F85C2C7C3DD</t>
+  </si>
+  <si>
+    <t>08310A575208C2DAD4231C70D97BA6F4BE8D9325843B61B9D2055527332277C8</t>
+  </si>
+  <si>
+    <t>6BFD9751A39F0105B2512C508F68E90A81185A37C23120FC4F8A2D772454461C</t>
+  </si>
+  <si>
+    <t>14F92615D0B458E6ECF90C42EE69EFD4269AD0A1829E2095C15828B1E502F09C</t>
+  </si>
+  <si>
+    <t>30337EA1E8A240450BF409A191C32EF8C66FBC2841DE471C1ECA40B5F2A3F317</t>
+  </si>
+  <si>
+    <t>7B7434AD202715CF40E5ABD16DF9F99F0BB615E925EA95A3A9DC8C4AC4318C8B</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>0AB3F7CCDA4E3647F2B8DF441DAAF9F3A994D4B8AE772F955ECE7C147079C613</t>
+  </si>
+  <si>
+    <t>52335E0B64BA4D212217254157EB1EB757A3818886DB1B52ED6E806625B3415B</t>
+  </si>
+  <si>
+    <t>EE2BC7536D71EDF076CC87D71DF3076187FB568D0C00C7C902DDD40CE8CE90F9</t>
+  </si>
+  <si>
+    <t>5A11C3C7AD8B55D047F3F28ACAA3A790DDF3C0656A71BD4326638CBDF59475E9</t>
+  </si>
+  <si>
+    <t>D6181679B88081916B2617A4CD5AA0E28516329268BA975372198CD8AC02F7F9</t>
+  </si>
+  <si>
+    <t>60FF603A892819DA7BD5C5AE6D0A507EC1537D9B75ED85018A6B213B9D432AB9</t>
+  </si>
+  <si>
+    <t>70370B94AC81688A89AC9A3773D3DD3A78D2C75A2C379A240A72929DF22F2604</t>
+  </si>
+  <si>
+    <t>CC0BAF907837CE82526FD1A12E5E29A048446F7EE4F42EF81208A5A3B9B3BAFC</t>
+  </si>
+  <si>
+    <t>73DA1E9891BFF88FE03151FCB9A378A3349B6C2469AD296797229110920BA2F3</t>
+  </si>
+  <si>
+    <t>73114694BC1F1977F099195A62DAB097CBBCAB4BFA6FEA06640F6D47320D0CCA</t>
+  </si>
+  <si>
+    <t>9D959CF399D84482CECCE3740B47F9D77253A75BA0E8363CFDCA1A228A05CDBF</t>
+  </si>
+  <si>
+    <t>23817434628FF4BDEF9D9EC971B9CED6980B923FBCEAA23C4CD817BF4A03ECFE</t>
+  </si>
+  <si>
+    <t>1E5610835921E64BE4B45E4C114AC5600DE8A1F95B8E84069686F0C6946016E0</t>
+  </si>
+  <si>
+    <t>6976745DB80F11D23175C2FB0C1F651C64D24236FF1414FE372A34CBD6B0C6F2</t>
+  </si>
+  <si>
+    <t>7C090F4B40F96DFDBF7B72CFEE9DB828552827804A85817AE7A61A12C69E2BEA</t>
+  </si>
+  <si>
+    <t>907087F4AC1C3C878572C839BE29D0EBAEB5EC99251EE133FD0BA738A9BE5A32</t>
+  </si>
+  <si>
+    <t>E98936DF4F42A5189153AB8E0432BC271E9E0F780A369AB0F2415740FD93BAE2</t>
+  </si>
+  <si>
+    <t>76F2AAD3302762A28CD5E7A6D48276BDAD3A0176CCDF4F051B52247EDC7878BA</t>
+  </si>
+  <si>
+    <t>537DE8405C1EF4419E86DA574B0843FC039CB58DF675053FCC23ED480ACBE401</t>
+  </si>
+  <si>
+    <t>8E4F137008F818328AFE3C13C7B1851927D9578EE00E74A5326D2F9AD6F71499</t>
+  </si>
+  <si>
+    <t>9A1FCCF65F4D4FBFF69D23EDB27245DC4CDC308097584FC9C1E9D9234731744F</t>
+  </si>
+  <si>
+    <t>8FB35E99CA905E436F111621E23FD8AA38C7D5444B1BF16AFCBEBFD3A20DF3A3</t>
+  </si>
+  <si>
+    <t>7A47D17028EC1715EEA2179A29DD412D7A381104F84F585B49820229B50EB91C</t>
+  </si>
+  <si>
+    <t>906316B93CE4A2092C04800400AF6C2470E3AB66E6823306B8454588D4E41C13</t>
+  </si>
+  <si>
+    <t>CB4656EB2BE43C954BCF8F227B447B96C4B7DF8877930ADA8716FEB55302ABE6</t>
+  </si>
+  <si>
+    <t>DF35A058C9E0DAD9521937A39BA84FD569CA6D2F2B8DA650214D7394C82F1ADB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -167,6 +329,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -216,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -231,6 +400,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -581,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,28 +798,28 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +832,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -672,15 +847,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +868,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -706,15 +883,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -740,15 +919,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -774,15 +955,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -793,9 +974,191 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -808,43 +1171,290 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="17.88671875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
+      <c r="A3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+      <c r="A4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -852,322 +1462,55 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
+      <c r="A2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
+      <c r="A3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="17.88671875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>22</v>
+      <c r="A4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1194,12 +1537,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1226,12 +1569,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1258,12 +1601,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1290,12 +1633,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1306,9 +1649,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1324,18 +1669,29 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +1704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1365,24 +1723,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1412,24 +1772,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1802,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1459,24 +1821,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1851,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1507,24 +1871,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1537,7 +1901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1550,15 +1916,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1571,7 +1937,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1584,15 +1952,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
